--- a/TP 7/ejercicio1.xlsx
+++ b/TP 7/ejercicio1.xlsx
@@ -4,22 +4,68 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Histograma uniforme" sheetId="2" r:id="rId2"/>
+    <sheet name="Histograma exponencial" sheetId="3" r:id="rId3"/>
+    <sheet name="Histograma normal" sheetId="4" r:id="rId4"/>
+    <sheet name="Histograma Poisson" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>Números aleatorios entre 0 y 1</t>
   </si>
   <si>
     <t>a. Uniforme en el intervalo [3, 6]</t>
+  </si>
+  <si>
+    <t>b. Exponencial con parámetro λ = 2</t>
+  </si>
+  <si>
+    <t>Media = 15 sigma = raiz(30)/6</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>c. Normal con media 30 y desvío estándar 2</t>
+  </si>
+  <si>
+    <t>d. Poisson con media 2</t>
+  </si>
+  <si>
+    <t>Minimo</t>
+  </si>
+  <si>
+    <t>Maximo</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>Rango</t>
+  </si>
+  <si>
+    <t>Tamanio intervalos</t>
+  </si>
+  <si>
+    <t>limInf</t>
+  </si>
+  <si>
+    <t>limSup</t>
+  </si>
+  <si>
+    <t>Frecuencia</t>
+  </si>
+  <si>
+    <t>Media</t>
   </si>
 </sst>
 </file>
@@ -55,10 +101,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -75,6 +130,3700 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Distribución</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> uniforme</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Histograma uniforme'!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.2775522072762304</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7714796798611245</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2654071524460182</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7593346250309132</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2532620976158064</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7471895702007014</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Histograma uniforme'!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-49140512"/>
+        <c:axId val="-49148672"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-49140512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-49148672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-49148672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-49140512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Distribución</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> exponencial</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Histograma exponencial'!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.26471769630024811</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78390459503686283</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3030914937734777</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8222783925100925</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3414652912467071</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8606521899833224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Histograma exponencial'!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1806962256"/>
+        <c:axId val="-1806954096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1806962256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1806954096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1806954096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1806962256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Distribución</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> normal</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Histograma normal'!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>28.143694010125259</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.08275738360333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.021820757081393</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.960884130559457</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.89994750403752</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.839010877515584</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Histograma normal'!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1806963888"/>
+        <c:axId val="-1806953008"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1806963888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1806953008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1806953008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1806963888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Distribución</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> Poisson</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Histograma Poisson'!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-2.1793559248343359</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.0771865433833367</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4982838067662771E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1271522195186621</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2293216009696617</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3314909824206613</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Histograma Poisson'!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2034092320"/>
+        <c:axId val="-2034081984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2034092320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2034081984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2034081984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2034092320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>358775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>-158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1504386" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5540375" y="-158750"/>
+              <a:ext cx="1504386" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <a:fld id="{7EE917D8-A26B-4BCE-B905-3E2F94D7EC03}" type="mathplaceholder">
+                      <a:rPr lang="es-ES" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:t>Escriba aquí la ecuación.</a:t>
+                    </a:fld>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-ES" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5540375" y="-158750"/>
+              <a:ext cx="1504386" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>"Escriba aquí la ecuación."</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-ES" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -364,328 +4113,1736 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.453125" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" customWidth="1"/>
+    <col min="3" max="3" width="16.90625" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6328125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="24.36328125" customWidth="1"/>
+    <col min="8" max="8" width="17.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="str">
+        <f>F1</f>
+        <v>c. Normal con media 30 y desvío estándar 2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <f ca="1">RAND()</f>
-        <v>0.60853944837951113</v>
+        <v>0.75938874445473281</v>
       </c>
       <c r="B2">
         <f ca="1">3+A2*3</f>
-        <v>4.8256183451385333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>5.2781662333641979</v>
+      </c>
+      <c r="C2">
+        <f ca="1">-LN(1-A2)/2</f>
+        <v>0.71228634769168175</v>
+      </c>
+      <c r="D2">
+        <f ca="1">SUM($A$2:$A$31)</f>
+        <v>16.094005829377455</v>
+      </c>
+      <c r="E2">
+        <f ca="1">(D2-14)/(SQRT(30)/6)</f>
+        <v>2.2938684565946921</v>
+      </c>
+      <c r="F2" s="3">
+        <f ca="1">2*E2+30</f>
+        <v>34.587736913189381</v>
+      </c>
+      <c r="G2" s="4">
+        <v>32.847395016678533</v>
+      </c>
+      <c r="H2">
+        <f ca="1">LOG(2*A2*EXP(2),2)</f>
+        <v>3.4883006025980539</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <f t="shared" ref="A3:A31" ca="1" si="0">RAND()</f>
-        <v>0.51117109009852502</v>
+        <v>0.65183971383045536</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B31" ca="1" si="1">3+A3*3</f>
-        <v>4.5335132702955754</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>4.955519141491366</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C31" ca="1" si="2">-LN(1-A3)/2</f>
+        <v>0.52754615640329061</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D31" ca="1" si="3">SUM($A$2:$A$31)</f>
+        <v>16.094005829377455</v>
+      </c>
+      <c r="E3">
+        <f ca="1">(D3-14)/(SQRT(30)/6)</f>
+        <v>2.2938684565946921</v>
+      </c>
+      <c r="F3" s="3">
+        <f ca="1">2*E3+30</f>
+        <v>34.587736913189381</v>
+      </c>
+      <c r="G3" s="4">
+        <v>32.693427029844429</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H31" ca="1" si="4">LOG(2*A3*EXP(2),2)</f>
+        <v>3.267979238937659</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8103774897075002E-2</v>
+        <v>0.82020979990210097</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.294311324691225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>5.4606293997063027</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.85798233144555625</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="3"/>
+        <v>16.094005829377455</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E3:E31" ca="1" si="5">(D4-14)/(SQRT(30)/6)</f>
+        <v>2.2938684565946921</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" ref="F3:G31" ca="1" si="6">2*E4+30</f>
+        <v>34.587736913189381</v>
+      </c>
+      <c r="G4" s="4">
+        <v>29.979864631581293</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.5994549680413068</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23291915378640404</v>
+        <v>0.65243011669547057</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6987574613592122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>4.9572903500864118</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.52839476558058895</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="3"/>
+        <v>16.094005829377455</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.2938684565946921</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>34.587736913189381</v>
+      </c>
+      <c r="G5" s="4">
+        <v>30.855701969462686</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.269285366433254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11000203906378581</v>
+        <v>3.6082198097337592E-2</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3300061171913575</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3.1082465942920128</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.8374627871459433E-2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="3"/>
+        <v>16.094005829377455</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.2938684565946921</v>
+      </c>
+      <c r="F6" s="3">
+        <f ca="1">2*E6+30</f>
+        <v>34.587736913189381</v>
+      </c>
+      <c r="G6" s="4">
+        <v>36.111013221478586</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.90717887895080362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50867830994977714</v>
+        <v>4.5170583914344586E-2</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.526034929849331</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3.1355117517430338</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.3111288178017782E-2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="3"/>
+        <v>16.094005829377455</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.2938684565946921</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>34.587736913189381</v>
+      </c>
+      <c r="G7" s="4">
+        <v>35.79012474911292</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.58308254456707731</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74509842578512708</v>
+        <v>0.25758692704114128</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2352952773553811</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3.7727607811234236</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.14892474430749844</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="3"/>
+        <v>16.094005829377455</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.2938684565946921</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>34.587736913189381</v>
+      </c>
+      <c r="G8" s="4">
+        <v>34.631253245397517</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.9285213630624169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5586460527647708E-2</v>
+        <v>0.6546071882006792</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1667593815829429</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>4.9638215646020374</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.53153646236071728</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="3"/>
+        <v>16.094005829377455</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.2938684565946921</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>34.587736913189381</v>
+      </c>
+      <c r="G9" s="4">
+        <v>33.591986935440666</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.2740914315044272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86509894728494019</v>
+        <v>0.72854500629474495</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5952968418548208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>5.1856350188842351</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.65197946119538541</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="3"/>
+        <v>16.094005829377455</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.2938684565946921</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>34.587736913189381</v>
+      </c>
+      <c r="G10" s="4">
+        <v>31.055333533107262</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.4284800852649653</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10678124109156506</v>
+        <v>0.90248265422540463</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3203437232746951</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>5.7074479626762145</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.1638625057105778</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="3"/>
+        <v>16.094005829377455</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.2938684565946921</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>34.587736913189381</v>
+      </c>
+      <c r="G11" s="4">
+        <v>29.396124698716633</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.73736119046547</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34221444115417576</v>
+        <v>9.1048874429427218E-2</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0266433234625278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3.2731466232882815</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.7731976749631706E-2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="3"/>
+        <v>16.094005829377455</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.2938684565946921</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>34.587736913189381</v>
+      </c>
+      <c r="G12" s="4">
+        <v>35.335131597956099</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.4281750743330397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68420809267820959</v>
+        <v>0.74931706716138324</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0526242780346289</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>5.2479512014841498</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.69178317708118031</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="3"/>
+        <v>16.094005829377455</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.2938684565946921</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>34.587736913189381</v>
+      </c>
+      <c r="G13" s="4">
+        <v>30.027614937693496</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.4690382989372508</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74371390962171113</v>
+        <v>0.55504941091214366</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2311417288651336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>4.6651482327364313</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.40489601936922459</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="3"/>
+        <v>16.094005829377455</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.2938684565946921</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>34.587736913189381</v>
+      </c>
+      <c r="G14" s="4">
+        <v>30.463481085939449</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.0360781938576418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96147115243216641</v>
+        <v>1.124280921354337E-2</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8844134572964997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3.03372842764063</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.6532436617377788E-3</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="3"/>
+        <v>16.094005829377455</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.2938684565946921</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>34.587736913189381</v>
+      </c>
+      <c r="G15" s="4">
+        <v>29.978952779363567</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2.5894635446737979</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46625886521204563</v>
+        <v>0.48154842528195985</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3987765956361367</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+        <v>4.444645275845879</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.32845432531243862</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="3"/>
+        <v>16.094005829377455</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.2938684565946921</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>34.587736913189381</v>
+      </c>
+      <c r="G16" s="4">
+        <v>30.715151972547154</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.8311428719816378</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37802867953616148</v>
+        <v>1.0196156994594419E-2</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1340860386084843</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3.0305884709837834</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.1242469319407067E-3</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="3"/>
+        <v>16.094005829377455</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.2938684565946921</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>34.587736913189381</v>
+      </c>
+      <c r="G17" s="4">
+        <v>31.565298865276475</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2.7304406155598357</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8099134023060659</v>
+        <v>0.79809255581419325</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>5.4297402069181979</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>5.3942776674425801</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.79997294184263323</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="3"/>
+        <v>16.094005829377455</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.2938684565946921</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>34.587736913189381</v>
+      </c>
+      <c r="G18" s="4">
+        <v>35.890100959774912</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.5600180542292024</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1936663721375962E-2</v>
+        <v>1.715411807410594E-2</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>3.185809991164128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3.051462354222318</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.651477259268606E-3</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="3"/>
+        <v>16.094005829377455</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.2938684565946921</v>
+      </c>
+      <c r="F19" s="3">
+        <f ca="1">2*E19+30</f>
+        <v>34.587736913189381</v>
+      </c>
+      <c r="G19" s="4">
+        <v>33.632605025590209</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.9799111518954715</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75806902748977079</v>
+        <v>0.99805110216438275</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2742070824693119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+        <v>5.994153306493148</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.1202456393516296</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="3"/>
+        <v>16.094005829377455</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.2938684565946921</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>34.587736913189381</v>
+      </c>
+      <c r="G20" s="4">
+        <v>27.174162323386227</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.8825756731461607</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21711819455761983</v>
+        <v>0.82374257121171157</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6513545836728594</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+        <v>5.4712277136351348</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.8679048445123001</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="3"/>
+        <v>16.094005829377455</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.2938684565946921</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>34.587736913189381</v>
+      </c>
+      <c r="G21" s="4">
+        <v>28.258732156361948</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.6056555363595391</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42077974115238181</v>
+        <v>0.63774236026462505</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2623392234571451</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+        <v>4.9132270807938756</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.507699804163528</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="3"/>
+        <v>16.094005829377455</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.2938684565946921</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>34.587736913189381</v>
+      </c>
+      <c r="G22" s="4">
+        <v>30.391485996453056</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.2364356982810625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71496301236187743</v>
+        <v>0.85494704507319863</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1448890370856324</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+        <v>5.5648411352195959</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.96532819842072559</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="3"/>
+        <v>16.094005829377455</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.2938684565946921</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>34.587736913189381</v>
+      </c>
+      <c r="G23" s="4">
+        <v>35.436796021740221</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.6592970499578064</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17524190773532178</v>
+        <v>0.93786682791001674</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5257257232059653</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+        <v>5.8136004837300508</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.3892376302602092</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="3"/>
+        <v>16.094005829377455</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.2938684565946921</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>34.587736913189381</v>
+      </c>
+      <c r="G24" s="4">
+        <v>32.613870065722601</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.7928450691689108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27080678891491561</v>
+        <v>0.1203905256458182</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8124203667447469</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3.3611715769374548</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.4138624575983155E-2</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="3"/>
+        <v>16.094005829377455</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.2938684565946921</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>34.587736913189381</v>
+      </c>
+      <c r="G25" s="4">
+        <v>30.946969774810473</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.83118384791162159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88595093181282136</v>
+        <v>0.41241663084492886</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6578527954384636</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+        <v>4.2372498925347868</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.26586856904328765</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="3"/>
+        <v>16.094005829377455</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.2938684565946921</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>34.587736913189381</v>
+      </c>
+      <c r="G26" s="4">
+        <v>31.692201199204746</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.607564497951897</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4342236940914822</v>
+        <v>0.17436770191368667</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3026710822744469</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3.5231031057410602</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.5802882137977025E-2</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="3"/>
+        <v>16.094005829377455</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.2938684565946921</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>34.587736913189381</v>
+      </c>
+      <c r="G27" s="4">
+        <v>33.364988031693464</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.3655948217061058</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26442956553458064</v>
+        <v>0.72095216295178033</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7932886966037418</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+        <v>5.1628564888553408</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.63818602645199274</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="3"/>
+        <v>16.094005829377455</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.2938684565946921</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>34.587736913189381</v>
+      </c>
+      <c r="G28" s="4">
+        <v>30.567018688931057</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.4133655229699431</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71056467565619452</v>
+        <v>0.8140015729540796</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1316940269685833</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+        <v>5.4420047188622389</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.84100853102352879</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="3"/>
+        <v>16.094005829377455</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.2938684565946921</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>34.587736913189381</v>
+      </c>
+      <c r="G29" s="4">
+        <v>38.808542564254623</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.5884935692086937</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55847542219756119</v>
+        <v>0.84628748530636244</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6754262665926838</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+        <v>5.5388624559190873</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.93633560444594333</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="3"/>
+        <v>16.094005829377455</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.2938684565946921</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>34.587736913189381</v>
+      </c>
+      <c r="G30" s="4">
+        <v>32.109132738707153</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.6446098194693373</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68796490112603625</v>
+        <v>0.53124749259909954</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="1"/>
-        <v>5.063894703378109</v>
+        <v>4.5937424777972984</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.37884017629495098</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="3"/>
+        <v>16.094005829377455</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.2938684565946921</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>34.587736913189381</v>
+      </c>
+      <c r="G31" s="4">
+        <v>37.940549290642096</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.9728461137607249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <f ca="1">MIN(B2:B31)</f>
+        <v>3.0305884709837834</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:H33" ca="1" si="7">MIN(C2:C31)</f>
+        <v>5.1242469319407067E-3</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="7"/>
+        <v>16.094005829377455</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="7"/>
+        <v>2.2938684565946921</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="7"/>
+        <v>34.587736913189381</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="7"/>
+        <v>27.174162323386227</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ca="1" si="7"/>
+        <v>-2.7304406155598357</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <f ca="1">MAX(B2:B31)</f>
+        <v>5.994153306493148</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:H34" ca="1" si="8">MAX(C2:C31)</f>
+        <v>3.1202456393516296</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="8"/>
+        <v>16.094005829377455</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="8"/>
+        <v>2.2938684565946921</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="8"/>
+        <v>34.587736913189381</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="8"/>
+        <v>38.808542564254623</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ca="1" si="8"/>
+        <v>3.8825756731461607</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <f ca="1">B34-B33</f>
+        <v>2.9635648355093647</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:H35" ca="1" si="9">C34-C33</f>
+        <v>3.115121392419689</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="9"/>
+        <v>11.634380240868396</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ca="1" si="9"/>
+        <v>6.613016288705996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37">
+        <f ca="1">B35/$B$36</f>
+        <v>0.49392747258489411</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37:H37" ca="1" si="10">C35/$B$36</f>
+        <v>0.51918689873661483</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="10"/>
+        <v>1.939063373478066</v>
+      </c>
+      <c r="H37">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.1021693814509994</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <f ca="1">Hoja1!B33</f>
+        <v>3.0305884709837834</v>
+      </c>
+      <c r="B2">
+        <f ca="1">A2+Hoja1!$B$37</f>
+        <v>3.5245159435686775</v>
+      </c>
+      <c r="C2">
+        <f ca="1">AVERAGE(A2:B2)</f>
+        <v>3.2775522072762304</v>
+      </c>
+      <c r="D2">
+        <f ca="1">FREQUENCY(Hoja1!$B$2:$B$31,'Histograma uniforme'!B2)-FREQUENCY(Hoja1!$B$2:$B$31,'Histograma uniforme'!B1)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <f ca="1">B2</f>
+        <v>3.5245159435686775</v>
+      </c>
+      <c r="B3">
+        <f ca="1">A3+Hoja1!$B$37</f>
+        <v>4.0184434161535716</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C7" ca="1" si="0">AVERAGE(A3:B3)</f>
+        <v>3.7714796798611245</v>
+      </c>
+      <c r="D3">
+        <f ca="1">FREQUENCY(Hoja1!$B$2:$B$31,'Histograma uniforme'!B3)-FREQUENCY(Hoja1!$B$2:$B$31,'Histograma uniforme'!B2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <f t="shared" ref="A4:A7" ca="1" si="1">B3</f>
+        <v>4.0184434161535716</v>
+      </c>
+      <c r="B4">
+        <f ca="1">A4+Hoja1!$B$37</f>
+        <v>4.5123708887384657</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.2654071524460182</v>
+      </c>
+      <c r="D4">
+        <f ca="1">FREQUENCY(Hoja1!$B$2:$B$31,'Histograma uniforme'!B4)-FREQUENCY(Hoja1!$B$2:$B$31,'Histograma uniforme'!B3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.5123708887384657</v>
+      </c>
+      <c r="B5">
+        <f ca="1">A5+Hoja1!$B$37</f>
+        <v>5.0062983613233598</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.7593346250309132</v>
+      </c>
+      <c r="D5">
+        <f ca="1">FREQUENCY(Hoja1!$B$2:$B$31,'Histograma uniforme'!B5)-FREQUENCY(Hoja1!$B$2:$B$31,'Histograma uniforme'!B4)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.0062983613233598</v>
+      </c>
+      <c r="B6">
+        <f ca="1">A6+Hoja1!$B$37</f>
+        <v>5.5002258339082539</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.2532620976158064</v>
+      </c>
+      <c r="D6">
+        <f ca="1">FREQUENCY(Hoja1!$B$2:$B$31,'Histograma uniforme'!B6)-FREQUENCY(Hoja1!$B$2:$B$31,'Histograma uniforme'!B5)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.5002258339082539</v>
+      </c>
+      <c r="B7">
+        <f ca="1">A7+Hoja1!$B$37</f>
+        <v>5.994153306493148</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.7471895702007014</v>
+      </c>
+      <c r="D7">
+        <f ca="1">FREQUENCY(Hoja1!$B$2:$B$31,'Histograma uniforme'!B7)-FREQUENCY(Hoja1!$B$2:$B$31,'Histograma uniforme'!B6)</f>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <f ca="1">Hoja1!C33</f>
+        <v>5.1242469319407067E-3</v>
+      </c>
+      <c r="B2">
+        <f ca="1">A2+Hoja1!$C$37</f>
+        <v>0.52431114566855552</v>
+      </c>
+      <c r="C2">
+        <f ca="1">AVERAGE(A2:B2)</f>
+        <v>0.26471769630024811</v>
+      </c>
+      <c r="D2">
+        <f ca="1">FREQUENCY(Hoja1!$C$2:$C$31,'Histograma exponencial'!B2)-FREQUENCY(Hoja1!$C$2:$C$31,'Histograma exponencial'!B1)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <f ca="1">B2</f>
+        <v>0.52431114566855552</v>
+      </c>
+      <c r="B3">
+        <f ca="1">A3+Hoja1!$C$37</f>
+        <v>1.0434980444051702</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C7" ca="1" si="0">AVERAGE(A3:B3)</f>
+        <v>0.78390459503686283</v>
+      </c>
+      <c r="D3">
+        <f ca="1">FREQUENCY(Hoja1!$C$2:$C$31,'Histograma exponencial'!B3)-FREQUENCY(Hoja1!$C$2:$C$31,'Histograma exponencial'!B2)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <f t="shared" ref="A4:A7" ca="1" si="1">B3</f>
+        <v>1.0434980444051702</v>
+      </c>
+      <c r="B4">
+        <f ca="1">A4+Hoja1!$C$37</f>
+        <v>1.5626849431417851</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.3030914937734777</v>
+      </c>
+      <c r="D4">
+        <f ca="1">FREQUENCY(Hoja1!$C$2:$C$31,'Histograma exponencial'!B4)-FREQUENCY(Hoja1!$C$2:$C$31,'Histograma exponencial'!B3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.5626849431417851</v>
+      </c>
+      <c r="B5">
+        <f ca="1">A5+Hoja1!$C$37</f>
+        <v>2.0818718418783999</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.8222783925100925</v>
+      </c>
+      <c r="D5">
+        <f ca="1">FREQUENCY(Hoja1!$C$2:$C$31,'Histograma exponencial'!B5)-FREQUENCY(Hoja1!$C$2:$C$31,'Histograma exponencial'!B4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.0818718418783999</v>
+      </c>
+      <c r="B6">
+        <f ca="1">A6+Hoja1!$C$37</f>
+        <v>2.6010587406150147</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.3414652912467071</v>
+      </c>
+      <c r="D6">
+        <f ca="1">FREQUENCY(Hoja1!$C$2:$C$31,'Histograma exponencial'!B6)-FREQUENCY(Hoja1!$C$2:$C$31,'Histograma exponencial'!B5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.6010587406150147</v>
+      </c>
+      <c r="B7">
+        <f ca="1">A7+Hoja1!$C$37</f>
+        <v>3.1202456393516296</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.8606521899833224</v>
+      </c>
+      <c r="D7">
+        <f ca="1">FREQUENCY(Hoja1!$C$2:$C$31,'Histograma exponencial'!B7)-FREQUENCY(Hoja1!$C$2:$C$31,'Histograma exponencial'!B6)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <f>Hoja1!G33</f>
+        <v>27.174162323386227</v>
+      </c>
+      <c r="B2">
+        <f>A2+Hoja1!$G$37</f>
+        <v>29.113225696864294</v>
+      </c>
+      <c r="C2">
+        <f>AVERAGE(A2:B2)</f>
+        <v>28.143694010125259</v>
+      </c>
+      <c r="D2">
+        <f>FREQUENCY(Hoja1!$G$2:$G$31,'Histograma normal'!B2)-FREQUENCY(Hoja1!$G$2:$G$31,'Histograma normal'!B1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <f>B2</f>
+        <v>29.113225696864294</v>
+      </c>
+      <c r="B3">
+        <f>A3+Hoja1!$G$37</f>
+        <v>31.052289070342361</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C7" si="0">AVERAGE(A3:B3)</f>
+        <v>30.08275738360333</v>
+      </c>
+      <c r="D3">
+        <f>FREQUENCY(Hoja1!$G$2:$G$31,'Histograma normal'!B3)-FREQUENCY(Hoja1!$G$2:$G$31,'Histograma normal'!B2)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <f t="shared" ref="A4:A7" si="1">B3</f>
+        <v>31.052289070342361</v>
+      </c>
+      <c r="B4">
+        <f>A4+Hoja1!$G$37</f>
+        <v>32.991352443820425</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>32.021820757081393</v>
+      </c>
+      <c r="D4">
+        <f>FREQUENCY(Hoja1!$G$2:$G$31,'Histograma normal'!B4)-FREQUENCY(Hoja1!$G$2:$G$31,'Histograma normal'!B3)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>32.991352443820425</v>
+      </c>
+      <c r="B5">
+        <f>A5+Hoja1!$G$37</f>
+        <v>34.930415817298488</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>33.960884130559457</v>
+      </c>
+      <c r="D5">
+        <f>FREQUENCY(Hoja1!$G$2:$G$31,'Histograma normal'!B5)-FREQUENCY(Hoja1!$G$2:$G$31,'Histograma normal'!B4)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>34.930415817298488</v>
+      </c>
+      <c r="B6">
+        <f>A6+Hoja1!$G$37</f>
+        <v>36.869479190776552</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>35.89994750403752</v>
+      </c>
+      <c r="D6">
+        <f>FREQUENCY(Hoja1!$G$2:$G$31,'Histograma normal'!B6)-FREQUENCY(Hoja1!$G$2:$G$31,'Histograma normal'!B5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>36.869479190776552</v>
+      </c>
+      <c r="B7">
+        <f>A7+Hoja1!$G$37</f>
+        <v>38.808542564254616</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>37.839010877515584</v>
+      </c>
+      <c r="D7">
+        <f>FREQUENCY(Hoja1!$G$2:$G$31,'Histograma normal'!B7)-FREQUENCY(Hoja1!$G$2:$G$31,'Histograma normal'!B6)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <f ca="1">Hoja1!H33</f>
+        <v>-2.7304406155598357</v>
+      </c>
+      <c r="B2">
+        <f ca="1">A2+Hoja1!$H$37</f>
+        <v>-1.6282712341088363</v>
+      </c>
+      <c r="C2">
+        <f ca="1">AVERAGE(A2:B2)</f>
+        <v>-2.1793559248343359</v>
+      </c>
+      <c r="D2">
+        <f ca="1">FREQUENCY(Hoja1!$H$2:$H$31,'Histograma Poisson'!B2)-FREQUENCY(Hoja1!$H$2:$H$31,'Histograma Poisson'!A2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <f ca="1">B2</f>
+        <v>-1.6282712341088363</v>
+      </c>
+      <c r="B3">
+        <f ca="1">A3+Hoja1!$H$37</f>
+        <v>-0.52610185265783693</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C7" ca="1" si="0">AVERAGE(A3:B3)</f>
+        <v>-1.0771865433833367</v>
+      </c>
+      <c r="D3">
+        <f ca="1">FREQUENCY(Hoja1!$H$2:$H$31,'Histograma Poisson'!B3)-FREQUENCY(Hoja1!$H$2:$H$31,'Histograma Poisson'!A3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <f t="shared" ref="A4:A7" ca="1" si="1">B3</f>
+        <v>-0.52610185265783693</v>
+      </c>
+      <c r="B4">
+        <f ca="1">A4+Hoja1!$H$37</f>
+        <v>0.57606752879316248</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.4982838067662771E-2</v>
+      </c>
+      <c r="D4">
+        <f ca="1">FREQUENCY(Hoja1!$H$2:$H$31,'Histograma Poisson'!B4)-FREQUENCY(Hoja1!$H$2:$H$31,'Histograma Poisson'!A4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.57606752879316248</v>
+      </c>
+      <c r="B5">
+        <f ca="1">A5+Hoja1!$H$37</f>
+        <v>1.6782369102441619</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.1271522195186621</v>
+      </c>
+      <c r="D5">
+        <f ca="1">FREQUENCY(Hoja1!$H$2:$H$31,'Histograma Poisson'!B5)-FREQUENCY(Hoja1!$H$2:$H$31,'Histograma Poisson'!A5)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.6782369102441619</v>
+      </c>
+      <c r="B6">
+        <f ca="1">A6+Hoja1!$H$37</f>
+        <v>2.7804062916951615</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2293216009696617</v>
+      </c>
+      <c r="D6">
+        <f ca="1">FREQUENCY(Hoja1!$H$2:$H$31,'Histograma Poisson'!B6)-FREQUENCY(Hoja1!$H$2:$H$31,'Histograma Poisson'!A6)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.7804062916951615</v>
+      </c>
+      <c r="B7">
+        <f ca="1">A7+Hoja1!$H$37</f>
+        <v>3.8825756731461611</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.3314909824206613</v>
+      </c>
+      <c r="D7">
+        <f ca="1">FREQUENCY(Hoja1!$H$2:$H$31,'Histograma Poisson'!B7)-FREQUENCY(Hoja1!$H$2:$H$31,'Histograma Poisson'!A7)</f>
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>